--- a/input/tbl/digcomp_tbl.xlsx
+++ b/input/tbl/digcomp_tbl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56933\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56933\Desktop\CSS Test\css test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEFE97A-E222-424D-8B56-4CC5DBD01BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A4FBA6-5B11-4AE5-AE32-5814EDF9BF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Competencias</t>
-  </si>
-  <si>
     <t>ICILS 2013</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>TIMSS 2023</t>
   </si>
   <si>
-    <t>Alfabetización digital</t>
-  </si>
-  <si>
     <t>Browsing, searching and filtering data, information and digital content</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>I can write sentences and paragraphs using a computer</t>
   </si>
   <si>
-    <t>Comunicación y colaboración</t>
-  </si>
-  <si>
     <t>Interacting through digital technologies</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>Managing digital identity</t>
   </si>
   <si>
-    <t>Creación de contenido digital</t>
-  </si>
-  <si>
     <t>Developing digital content</t>
   </si>
   <si>
@@ -238,9 +223,6 @@
     <t>Create a computer program, or [app] (e.g., in [Basic, Visual Basic])</t>
   </si>
   <si>
-    <t>Ciberseguridad</t>
-  </si>
-  <si>
     <t>Protecting devices</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t>Protecting the environment</t>
   </si>
   <si>
-    <t>Resolución de problemas</t>
-  </si>
-  <si>
     <t>Solving technical problems</t>
   </si>
   <si>
@@ -296,6 +275,27 @@
   </si>
   <si>
     <t>Identifying digital competence gaps</t>
+  </si>
+  <si>
+    <t>ILSA's</t>
+  </si>
+  <si>
+    <t>Competences</t>
+  </si>
+  <si>
+    <t>Information and data literacy</t>
+  </si>
+  <si>
+    <t>Communication and collaboration</t>
+  </si>
+  <si>
+    <t>Digital content creation</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Problem solving</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -372,17 +372,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -402,59 +391,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -474,31 +411,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -515,13 +432,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,153 +463,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,10 +773,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -905,591 +784,557 @@
     <col min="1" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="4" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="32" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="6" t="s">
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="55"/>
-    </row>
-    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="19" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="4" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="6" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="23" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="24" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="G17" s="23"/>
+      <c r="H17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="28" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="32" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="6" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="46" t="s">
+      <c r="D21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="40" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="6" t="s">
+      <c r="G21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="31" t="s">
+      <c r="H21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="32" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="C24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="D24" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="24" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="47" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="32" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="6" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="C30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="19" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="6" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="24" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="24" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="F32" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="6" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="5" t="s">
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="6" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="28" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-    </row>
-    <row r="32" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+  <mergeCells count="13">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
